--- a/documents/Query results/Basic_queries_FULL.xlsx
+++ b/documents/Query results/Basic_queries_FULL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/homebeach/Desktop/Query tests/Query tests, FINAL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7663C0CE-E771-4A40-BEAE-1CD0E0280906}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2494C5D3-A57A-5645-B182-1DF4DFCD7927}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="16720" windowWidth="41340" windowHeight="16520" xr2:uid="{2484DFE7-3498-AA40-9D37-7903D1F52BE9}"/>
+    <workbookView xWindow="17640" yWindow="17460" windowWidth="41340" windowHeight="16520" xr2:uid="{2484DFE7-3498-AA40-9D37-7903D1F52BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="102">
   <si>
     <t xml:space="preserve">Short query, workhours price </t>
   </si>
@@ -333,6 +333,12 @@
   </si>
   <si>
     <t>18.59058901702687</t>
+  </si>
+  <si>
+    <t>65871.34995398227</t>
+  </si>
+  <si>
+    <t>5.407402333838309</t>
   </si>
 </sst>
 </file>
@@ -730,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8120348-5E05-554A-AFC0-27A9F9C48481}">
   <dimension ref="A1:P113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="108" workbookViewId="0">
-      <selection activeCell="F92" sqref="F92"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="108" workbookViewId="0">
+      <selection activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2508,7 +2514,7 @@
       <c r="H64" s="7"/>
       <c r="I64" s="7"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>21</v>
       </c>
@@ -2521,7 +2527,7 @@
       <c r="H65" s="11"/>
       <c r="I65" s="11"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>20</v>
       </c>
@@ -2553,15 +2559,15 @@
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>14</v>
       </c>
@@ -2569,40 +2575,46 @@
         <v>35</v>
       </c>
       <c r="D70" t="s">
+        <v>75</v>
+      </c>
+      <c r="E70" t="s">
         <v>17</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>36</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
+        <v>77</v>
+      </c>
+      <c r="H70" t="s">
         <v>28</v>
       </c>
-      <c r="G70" t="s">
+      <c r="I70" t="s">
         <v>22</v>
       </c>
-      <c r="H70" t="s">
+      <c r="J70" t="s">
         <v>81</v>
       </c>
-      <c r="I70" t="s">
+      <c r="K70" t="s">
         <v>29</v>
       </c>
-      <c r="J70" t="s">
+      <c r="L70" t="s">
         <v>51</v>
       </c>
-      <c r="K70" t="s">
+      <c r="M70" t="s">
         <v>87</v>
       </c>
-      <c r="L70" t="s">
+      <c r="N70" t="s">
         <v>73</v>
       </c>
-      <c r="M70" t="s">
+      <c r="O70" t="s">
         <v>71</v>
       </c>
-      <c r="N70" t="s">
+      <c r="P70" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>1</v>
       </c>
@@ -2613,40 +2625,46 @@
         <v>3537729</v>
       </c>
       <c r="D71">
+        <v>3537655</v>
+      </c>
+      <c r="E71">
         <v>42</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>41</v>
       </c>
-      <c r="F71">
+      <c r="G71">
+        <v>25</v>
+      </c>
+      <c r="H71">
         <v>54</v>
-      </c>
-      <c r="G71">
-        <v>6</v>
-      </c>
-      <c r="H71">
-        <v>9</v>
       </c>
       <c r="I71">
         <v>6</v>
       </c>
       <c r="J71">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K71">
         <v>6</v>
       </c>
       <c r="L71">
+        <v>7</v>
+      </c>
+      <c r="M71">
+        <v>6</v>
+      </c>
+      <c r="N71">
         <v>69</v>
       </c>
-      <c r="M71">
+      <c r="O71">
         <v>118</v>
       </c>
-      <c r="N71">
+      <c r="P71">
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>2</v>
       </c>
@@ -2657,40 +2675,46 @@
         <v>4615243</v>
       </c>
       <c r="D72">
+        <v>3807921</v>
+      </c>
+      <c r="E72">
         <v>56</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>51</v>
       </c>
-      <c r="F72">
+      <c r="G72">
+        <v>131</v>
+      </c>
+      <c r="H72">
         <v>214</v>
       </c>
-      <c r="G72">
+      <c r="I72">
         <v>59</v>
       </c>
-      <c r="H72">
+      <c r="J72">
         <v>264</v>
       </c>
-      <c r="I72">
+      <c r="K72">
         <v>306</v>
       </c>
-      <c r="J72">
+      <c r="L72">
         <v>516</v>
       </c>
-      <c r="K72">
+      <c r="M72">
         <v>313</v>
       </c>
-      <c r="L72">
+      <c r="N72">
         <v>294</v>
       </c>
-      <c r="M72">
+      <c r="O72">
         <v>309</v>
       </c>
-      <c r="N72">
+      <c r="P72">
         <v>207</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>3</v>
       </c>
@@ -2700,41 +2724,47 @@
       <c r="C75" s="3">
         <v>3539058</v>
       </c>
-      <c r="D75" s="3">
-        <v>42</v>
+      <c r="D75">
+        <v>3543231</v>
       </c>
       <c r="E75" s="3">
         <v>42</v>
       </c>
-      <c r="F75" s="2">
+      <c r="F75" s="3">
+        <v>42</v>
+      </c>
+      <c r="G75">
+        <v>25</v>
+      </c>
+      <c r="H75" s="2">
         <v>54</v>
       </c>
-      <c r="G75" s="2">
+      <c r="I75" s="2">
         <v>51</v>
       </c>
-      <c r="H75">
+      <c r="J75">
         <v>50</v>
       </c>
-      <c r="I75">
+      <c r="K75">
         <v>211</v>
       </c>
-      <c r="J75" s="2">
+      <c r="L75" s="2">
         <v>215</v>
       </c>
-      <c r="K75">
+      <c r="M75">
         <v>182</v>
       </c>
-      <c r="L75">
+      <c r="N75">
         <v>93</v>
       </c>
-      <c r="M75" s="2">
+      <c r="O75" s="2">
         <v>120</v>
       </c>
-      <c r="N75">
+      <c r="P75">
         <v>95</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>4</v>
       </c>
@@ -2744,41 +2774,47 @@
       <c r="C76" s="3">
         <v>3541197</v>
       </c>
-      <c r="D76" s="3">
-        <v>42</v>
+      <c r="D76">
+        <v>3547278</v>
       </c>
       <c r="E76" s="3">
         <v>42</v>
       </c>
       <c r="F76" s="3">
+        <v>42</v>
+      </c>
+      <c r="G76">
+        <v>25</v>
+      </c>
+      <c r="H76" s="3">
         <v>54</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>51</v>
       </c>
-      <c r="H76">
+      <c r="J76">
         <v>50</v>
       </c>
-      <c r="I76">
+      <c r="K76">
         <v>212</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>215</v>
       </c>
-      <c r="K76">
+      <c r="M76">
         <v>184</v>
       </c>
-      <c r="L76">
+      <c r="N76">
         <v>106</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>121</v>
       </c>
-      <c r="N76">
+      <c r="P76">
         <v>96</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>5</v>
       </c>
@@ -2788,41 +2824,47 @@
       <c r="C77" s="3">
         <v>3554961</v>
       </c>
-      <c r="D77" s="3">
-        <v>42</v>
+      <c r="D77">
+        <v>3554355</v>
       </c>
       <c r="E77" s="3">
         <v>42</v>
       </c>
       <c r="F77" s="3">
+        <v>42</v>
+      </c>
+      <c r="G77">
+        <v>27</v>
+      </c>
+      <c r="H77" s="3">
         <v>58</v>
       </c>
-      <c r="G77" s="3">
+      <c r="I77" s="3">
         <v>51</v>
       </c>
-      <c r="H77">
+      <c r="J77">
         <v>62</v>
       </c>
-      <c r="I77">
+      <c r="K77">
         <v>212</v>
       </c>
-      <c r="J77" s="3">
+      <c r="L77" s="3">
         <v>216</v>
       </c>
-      <c r="K77">
+      <c r="M77">
         <v>184</v>
       </c>
-      <c r="L77">
+      <c r="N77">
         <v>109</v>
       </c>
-      <c r="M77" s="3">
+      <c r="O77" s="3">
         <v>123</v>
       </c>
-      <c r="N77">
+      <c r="P77">
         <v>97</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>6</v>
       </c>
@@ -2832,41 +2874,47 @@
       <c r="C78" s="3">
         <v>3575400</v>
       </c>
-      <c r="D78" s="3">
-        <v>42</v>
+      <c r="D78">
+        <v>3556549</v>
       </c>
       <c r="E78" s="3">
         <v>42</v>
       </c>
       <c r="F78" s="3">
+        <v>42</v>
+      </c>
+      <c r="G78">
+        <v>27</v>
+      </c>
+      <c r="H78" s="3">
         <v>62</v>
       </c>
-      <c r="G78" s="3">
+      <c r="I78" s="3">
         <v>52</v>
       </c>
-      <c r="H78">
+      <c r="J78">
         <v>73</v>
       </c>
-      <c r="I78">
+      <c r="K78">
         <v>213</v>
       </c>
-      <c r="J78" s="3">
+      <c r="L78" s="3">
         <v>216</v>
       </c>
-      <c r="K78">
+      <c r="M78">
         <v>184</v>
       </c>
-      <c r="L78">
+      <c r="N78">
         <v>110</v>
       </c>
-      <c r="M78" s="3">
+      <c r="O78" s="3">
         <v>125</v>
       </c>
-      <c r="N78">
+      <c r="P78">
         <v>97</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>7</v>
       </c>
@@ -2876,41 +2924,47 @@
       <c r="C79" s="3">
         <v>3599339</v>
       </c>
-      <c r="D79" s="3">
-        <v>42</v>
+      <c r="D79">
+        <v>3563745</v>
       </c>
       <c r="E79" s="3">
         <v>42</v>
       </c>
       <c r="F79" s="3">
+        <v>42</v>
+      </c>
+      <c r="G79">
+        <v>28</v>
+      </c>
+      <c r="H79" s="3">
         <v>63</v>
       </c>
-      <c r="G79" s="3">
+      <c r="I79" s="3">
         <v>52</v>
       </c>
-      <c r="H79">
+      <c r="J79">
         <v>77</v>
       </c>
-      <c r="I79">
+      <c r="K79">
         <v>213</v>
       </c>
-      <c r="J79" s="3">
+      <c r="L79" s="3">
         <v>216</v>
       </c>
-      <c r="K79">
+      <c r="M79">
         <v>184</v>
       </c>
-      <c r="L79">
+      <c r="N79">
         <v>111</v>
       </c>
-      <c r="M79" s="3">
+      <c r="O79" s="3">
         <v>130</v>
       </c>
-      <c r="N79">
+      <c r="P79">
         <v>98</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>8</v>
       </c>
@@ -2920,37 +2974,43 @@
       <c r="C80" s="3">
         <v>3664983</v>
       </c>
-      <c r="D80" s="3">
-        <v>42</v>
+      <c r="D80">
+        <v>3578619</v>
       </c>
       <c r="E80" s="3">
         <v>42</v>
       </c>
       <c r="F80" s="3">
+        <v>42</v>
+      </c>
+      <c r="G80">
+        <v>28</v>
+      </c>
+      <c r="H80" s="3">
         <v>66</v>
       </c>
-      <c r="G80" s="3">
+      <c r="I80" s="3">
         <v>52</v>
       </c>
-      <c r="H80">
+      <c r="J80">
         <v>78</v>
       </c>
-      <c r="I80">
+      <c r="K80">
         <v>213</v>
       </c>
-      <c r="J80" s="3">
+      <c r="L80" s="3">
         <v>216</v>
       </c>
-      <c r="K80">
+      <c r="M80">
         <v>184</v>
       </c>
-      <c r="L80">
+      <c r="N80">
         <v>145</v>
       </c>
-      <c r="M80" s="3">
+      <c r="O80" s="3">
         <v>138</v>
       </c>
-      <c r="N80">
+      <c r="P80">
         <v>99</v>
       </c>
     </row>
@@ -2964,37 +3024,43 @@
       <c r="C81" s="3">
         <v>3702277</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81">
+        <v>3671717</v>
+      </c>
+      <c r="E81" s="3">
         <v>43</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>42</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81">
+        <v>29</v>
+      </c>
+      <c r="H81" s="3">
         <v>66</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>54</v>
       </c>
-      <c r="H81">
+      <c r="J81">
         <v>79</v>
       </c>
-      <c r="I81">
+      <c r="K81">
         <v>213</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>217</v>
       </c>
-      <c r="K81">
+      <c r="M81">
         <v>184</v>
       </c>
-      <c r="L81">
+      <c r="N81">
         <v>158</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>138</v>
       </c>
-      <c r="N81">
+      <c r="P81">
         <v>99</v>
       </c>
     </row>
@@ -3008,37 +3074,43 @@
       <c r="C82" s="3">
         <v>3729130</v>
       </c>
-      <c r="D82" s="3">
+      <c r="D82">
+        <v>3672794</v>
+      </c>
+      <c r="E82" s="3">
         <v>43</v>
       </c>
-      <c r="E82" s="3">
+      <c r="F82" s="3">
         <v>42</v>
       </c>
-      <c r="F82" s="3">
+      <c r="G82">
+        <v>36</v>
+      </c>
+      <c r="H82" s="3">
         <v>67</v>
       </c>
-      <c r="G82" s="3">
+      <c r="I82" s="3">
         <v>54</v>
       </c>
-      <c r="H82">
+      <c r="J82">
         <v>80</v>
       </c>
-      <c r="I82">
+      <c r="K82">
         <v>216</v>
       </c>
-      <c r="J82" s="3">
+      <c r="L82" s="3">
         <v>217</v>
       </c>
-      <c r="K82">
+      <c r="M82">
         <v>185</v>
       </c>
-      <c r="L82">
+      <c r="N82">
         <v>186</v>
       </c>
-      <c r="M82" s="3">
+      <c r="O82" s="3">
         <v>151</v>
       </c>
-      <c r="N82">
+      <c r="P82">
         <v>99</v>
       </c>
     </row>
@@ -3052,37 +3124,43 @@
       <c r="C83" s="3">
         <v>4111351</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83">
+        <v>3696650</v>
+      </c>
+      <c r="E83" s="3">
         <v>43</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>42</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83">
+        <v>39</v>
+      </c>
+      <c r="H83" s="3">
         <v>73</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>54</v>
       </c>
-      <c r="H83">
+      <c r="J83">
         <v>83</v>
       </c>
-      <c r="I83">
+      <c r="K83">
         <v>272</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>219</v>
       </c>
-      <c r="K83">
+      <c r="M83">
         <v>186</v>
       </c>
-      <c r="L83">
+      <c r="N83">
         <v>203</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>173</v>
       </c>
-      <c r="N83">
+      <c r="P83">
         <v>99</v>
       </c>
     </row>
@@ -3096,37 +3174,43 @@
       <c r="C84" s="3">
         <v>4231090</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D84">
+        <v>3713250</v>
+      </c>
+      <c r="E84" s="3">
         <v>43</v>
       </c>
-      <c r="E84" s="3">
+      <c r="F84" s="3">
         <v>45</v>
       </c>
-      <c r="F84" s="3">
+      <c r="G84">
+        <v>40</v>
+      </c>
+      <c r="H84" s="3">
         <v>79</v>
       </c>
-      <c r="G84" s="3">
+      <c r="I84" s="3">
         <v>56</v>
       </c>
-      <c r="H84">
+      <c r="J84">
         <v>138</v>
       </c>
-      <c r="I84">
+      <c r="K84">
         <v>280</v>
       </c>
-      <c r="J84" s="3">
+      <c r="L84" s="3">
         <v>221</v>
       </c>
-      <c r="K84">
+      <c r="M84">
         <v>187</v>
       </c>
-      <c r="L84">
+      <c r="N84">
         <v>245</v>
       </c>
-      <c r="M84" s="3">
+      <c r="O84" s="3">
         <v>217</v>
       </c>
-      <c r="N84">
+      <c r="P84">
         <v>102</v>
       </c>
     </row>
@@ -3140,37 +3224,43 @@
       <c r="C86" s="2">
         <v>3724878</v>
       </c>
-      <c r="D86" s="3">
-        <v>42</v>
+      <c r="D86">
+        <v>3609818</v>
       </c>
       <c r="E86" s="3">
         <v>42</v>
       </c>
-      <c r="F86" s="1">
+      <c r="F86" s="3">
+        <v>42</v>
+      </c>
+      <c r="G86">
+        <v>30</v>
+      </c>
+      <c r="H86" s="1">
         <v>64</v>
       </c>
-      <c r="G86" s="1">
+      <c r="I86" s="1">
         <v>52</v>
       </c>
-      <c r="H86">
+      <c r="J86">
         <v>77</v>
       </c>
-      <c r="I86">
+      <c r="K86">
         <v>225</v>
       </c>
-      <c r="J86" s="1">
+      <c r="L86" s="1">
         <v>216</v>
       </c>
-      <c r="K86" s="1">
+      <c r="M86" s="1">
         <v>184</v>
       </c>
-      <c r="L86" s="1">
+      <c r="N86" s="1">
         <v>146</v>
       </c>
-      <c r="M86" s="1">
+      <c r="O86" s="1">
         <v>143</v>
       </c>
-      <c r="N86" s="1">
+      <c r="P86" s="1">
         <v>98</v>
       </c>
     </row>
@@ -3180,12 +3270,12 @@
       </c>
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
-      <c r="D87" s="8"/>
       <c r="E87" s="8"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
-      <c r="J87" s="7"/>
-      <c r="M87" s="7"/>
+      <c r="F87" s="8"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
+      <c r="L87" s="7"/>
+      <c r="O87" s="7"/>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
@@ -3193,12 +3283,12 @@
       </c>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
-      <c r="D88" s="11"/>
       <c r="E88" s="11"/>
       <c r="F88" s="11"/>
-      <c r="G88" s="11"/>
-      <c r="J88" s="11"/>
-      <c r="M88" s="11"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="11"/>
+      <c r="L88" s="11"/>
+      <c r="O88" s="11"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
@@ -3210,37 +3300,43 @@
       <c r="C89" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D89" t="s">
+        <v>100</v>
+      </c>
+      <c r="E89" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="F89" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="G89" t="s">
+        <v>101</v>
+      </c>
+      <c r="H89" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G89" s="1" t="s">
+      <c r="I89" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H89" t="s">
+      <c r="J89" t="s">
         <v>89</v>
       </c>
-      <c r="I89" t="s">
+      <c r="K89" t="s">
         <v>62</v>
       </c>
-      <c r="J89" s="1" t="s">
+      <c r="L89" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K89" s="1" t="s">
+      <c r="M89" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L89" s="1" t="s">
+      <c r="N89" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="M89" s="1" t="s">
+      <c r="O89" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="N89" s="1" t="s">
+      <c r="P89" s="1" t="s">
         <v>91</v>
       </c>
     </row>

--- a/documents/Query results/Basic_queries_FULL.xlsx
+++ b/documents/Query results/Basic_queries_FULL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/homebeach/Desktop/Query tests/Query tests, FINAL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2494C5D3-A57A-5645-B182-1DF4DFCD7927}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DCD683-8897-5E49-9826-672A3D555BD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17640" yWindow="17460" windowWidth="41340" windowHeight="16520" xr2:uid="{2484DFE7-3498-AA40-9D37-7903D1F52BE9}"/>
+    <workbookView xWindow="31780" yWindow="17180" windowWidth="41340" windowHeight="16520" xr2:uid="{2484DFE7-3498-AA40-9D37-7903D1F52BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -125,12 +125,6 @@
     <t>Neo4J 4.1.3 CALL</t>
   </si>
   <si>
-    <t>23.84973794405297</t>
-  </si>
-  <si>
-    <t>24.162160499425543</t>
-  </si>
-  <si>
     <t>1.5362291495737217</t>
   </si>
   <si>
@@ -281,21 +275,9 @@
     <t>Neo4J 4.1.3 indexed, previousinvoice</t>
   </si>
   <si>
-    <t>32.66634353581679</t>
-  </si>
-  <si>
     <t>Neo4J 4.1.3 CALL indexed, previousinvoice</t>
   </si>
   <si>
-    <t>6.985699678629192</t>
-  </si>
-  <si>
-    <t>1468.303701554961</t>
-  </si>
-  <si>
-    <t>3.8999999999999995</t>
-  </si>
-  <si>
     <t>Neo4J 4.1.3 indexed, previousinvoice CALL</t>
   </si>
   <si>
@@ -329,9 +311,6 @@
     <t>885.5695342546513</t>
   </si>
   <si>
-    <t>62.464389855340784</t>
-  </si>
-  <si>
     <t>18.59058901702687</t>
   </si>
   <si>
@@ -339,6 +318,27 @@
   </si>
   <si>
     <t>5.407402333838309</t>
+  </si>
+  <si>
+    <t>7.354590403278758</t>
+  </si>
+  <si>
+    <t>2.3748684174075834</t>
+  </si>
+  <si>
+    <t>1797.5589114129195</t>
+  </si>
+  <si>
+    <t>1.661324772583615</t>
+  </si>
+  <si>
+    <t>1.5524174696260025</t>
+  </si>
+  <si>
+    <t>1294.7186914538615</t>
+  </si>
+  <si>
+    <t>161.2341154966901</t>
   </si>
 </sst>
 </file>
@@ -736,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8120348-5E05-554A-AFC0-27A9F9C48481}">
   <dimension ref="A1:P113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="108" workbookViewId="0">
-      <selection activeCell="G87" sqref="G87"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="108" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -749,6 +749,7 @@
     <col min="7" max="7" width="19.33203125" customWidth="1"/>
     <col min="8" max="8" width="18.5" customWidth="1"/>
     <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -761,19 +762,19 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H3" t="s">
         <v>28</v>
@@ -782,16 +783,16 @@
         <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K3" t="s">
         <v>29</v>
       </c>
       <c r="L3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -817,22 +818,22 @@
         <v>190</v>
       </c>
       <c r="H4">
-        <v>237</v>
+        <v>7</v>
       </c>
       <c r="I4">
         <v>132</v>
       </c>
       <c r="J4">
-        <v>176</v>
+        <v>7</v>
       </c>
       <c r="K4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L4">
         <v>7</v>
       </c>
       <c r="M4">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -858,22 +859,22 @@
         <v>272</v>
       </c>
       <c r="H5">
-        <v>596</v>
+        <v>160</v>
       </c>
       <c r="I5">
         <v>249</v>
       </c>
       <c r="J5">
-        <v>1513</v>
+        <v>238</v>
       </c>
       <c r="K5">
-        <v>247</v>
+        <v>168</v>
       </c>
       <c r="L5">
         <v>148</v>
       </c>
       <c r="M5">
-        <v>382</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -899,22 +900,22 @@
         <v>192</v>
       </c>
       <c r="H7" s="1">
-        <v>245</v>
+        <v>142</v>
       </c>
       <c r="I7" s="1">
         <v>134</v>
       </c>
       <c r="J7">
-        <v>204</v>
+        <v>143</v>
       </c>
       <c r="K7">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="L7">
         <v>126</v>
       </c>
       <c r="M7">
-        <v>214</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -940,22 +941,22 @@
         <v>193</v>
       </c>
       <c r="H8" s="1">
-        <v>320</v>
+        <v>142</v>
       </c>
       <c r="I8" s="1">
         <v>134</v>
       </c>
       <c r="J8">
-        <v>217</v>
+        <v>143</v>
       </c>
       <c r="K8">
-        <v>209</v>
+        <v>144</v>
       </c>
       <c r="L8">
         <v>128</v>
       </c>
       <c r="M8">
-        <v>224</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -981,22 +982,22 @@
         <v>194</v>
       </c>
       <c r="H9" s="1">
-        <v>360</v>
+        <v>142</v>
       </c>
       <c r="I9" s="1">
         <v>139</v>
       </c>
       <c r="J9">
-        <v>229</v>
+        <v>144</v>
       </c>
       <c r="K9">
-        <v>212</v>
+        <v>144</v>
       </c>
       <c r="L9">
         <v>129</v>
       </c>
       <c r="M9">
-        <v>224</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -1022,22 +1023,22 @@
         <v>195</v>
       </c>
       <c r="H10" s="1">
-        <v>361</v>
+        <v>144</v>
       </c>
       <c r="I10" s="1">
         <v>139</v>
       </c>
       <c r="J10">
-        <v>232</v>
+        <v>144</v>
       </c>
       <c r="K10">
-        <v>222</v>
+        <v>144</v>
       </c>
       <c r="L10">
         <v>129</v>
       </c>
       <c r="M10">
-        <v>224</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -1063,22 +1064,22 @@
         <v>198</v>
       </c>
       <c r="H11" s="1">
-        <v>370</v>
+        <v>144</v>
       </c>
       <c r="I11" s="1">
         <v>142</v>
       </c>
       <c r="J11">
-        <v>234</v>
+        <v>145</v>
       </c>
       <c r="K11">
-        <v>224</v>
+        <v>145</v>
       </c>
       <c r="L11">
         <v>131</v>
       </c>
       <c r="M11">
-        <v>224</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -1104,22 +1105,22 @@
         <v>201</v>
       </c>
       <c r="H12" s="1">
-        <v>398</v>
+        <v>145</v>
       </c>
       <c r="I12" s="1">
         <v>143</v>
       </c>
       <c r="J12">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="K12">
-        <v>228</v>
+        <v>145</v>
       </c>
       <c r="L12">
         <v>132</v>
       </c>
       <c r="M12">
-        <v>229</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -1145,22 +1146,22 @@
         <v>202</v>
       </c>
       <c r="H13" s="1">
-        <v>413</v>
+        <v>145</v>
       </c>
       <c r="I13" s="1">
         <v>145</v>
       </c>
       <c r="J13">
-        <v>250</v>
+        <v>146</v>
       </c>
       <c r="K13">
-        <v>234</v>
+        <v>145</v>
       </c>
       <c r="L13">
         <v>133</v>
       </c>
       <c r="M13">
-        <v>232</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -1186,22 +1187,22 @@
         <v>202</v>
       </c>
       <c r="H14" s="1">
-        <v>428</v>
+        <v>145</v>
       </c>
       <c r="I14" s="1">
         <v>154</v>
       </c>
       <c r="J14">
-        <v>263</v>
+        <v>146</v>
       </c>
       <c r="K14">
-        <v>237</v>
+        <v>146</v>
       </c>
       <c r="L14">
         <v>135</v>
       </c>
       <c r="M14">
-        <v>235</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -1227,22 +1228,22 @@
         <v>227</v>
       </c>
       <c r="H15" s="1">
-        <v>440</v>
+        <v>146</v>
       </c>
       <c r="I15" s="1">
         <v>156</v>
       </c>
       <c r="J15">
-        <v>278</v>
+        <v>160</v>
       </c>
       <c r="K15">
-        <v>241</v>
+        <v>147</v>
       </c>
       <c r="L15">
         <v>136</v>
       </c>
       <c r="M15">
-        <v>237</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -1268,22 +1269,22 @@
         <v>237</v>
       </c>
       <c r="H16" s="1">
-        <v>475</v>
+        <v>147</v>
       </c>
       <c r="I16" s="1">
         <v>217</v>
       </c>
       <c r="J16">
-        <v>324</v>
+        <v>165</v>
       </c>
       <c r="K16">
-        <v>243</v>
+        <v>149</v>
       </c>
       <c r="L16">
         <v>137</v>
       </c>
       <c r="M16">
-        <v>237</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -1309,22 +1310,22 @@
         <v>204</v>
       </c>
       <c r="H18" s="1">
-        <v>381</v>
+        <v>144</v>
       </c>
       <c r="I18" s="1">
         <v>150</v>
       </c>
       <c r="J18" s="1">
-        <v>247</v>
+        <v>148</v>
       </c>
       <c r="K18" s="1">
-        <v>220</v>
+        <v>145</v>
       </c>
       <c r="L18">
         <v>131</v>
       </c>
       <c r="M18" s="1">
-        <v>228</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -1333,12 +1334,12 @@
       </c>
       <c r="B19" s="4">
         <f>(B18-H18)/H18</f>
-        <v>6.2992125984251968E-2</v>
+        <v>1.8125</v>
       </c>
       <c r="C19" s="4"/>
       <c r="E19" s="6">
         <f>(H18-E18)/H18</f>
-        <v>0.45144356955380577</v>
+        <v>-0.4513888888888889</v>
       </c>
       <c r="F19" s="5"/>
       <c r="H19" s="5"/>
@@ -1361,37 +1362,37 @@
         <v>24</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="H21" t="s">
         <v>98</v>
       </c>
       <c r="I21" t="s">
+        <v>40</v>
+      </c>
+      <c r="J21" t="s">
+        <v>95</v>
+      </c>
+      <c r="K21" t="s">
+        <v>99</v>
+      </c>
+      <c r="L21" t="s">
         <v>42</v>
       </c>
-      <c r="J21" t="s">
-        <v>82</v>
-      </c>
-      <c r="K21" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" t="s">
-        <v>44</v>
-      </c>
       <c r="M21" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -1407,19 +1408,19 @@
         <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E25" t="s">
         <v>17</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H25" t="s">
         <v>28</v>
@@ -1428,16 +1429,16 @@
         <v>22</v>
       </c>
       <c r="J25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K25" t="s">
         <v>29</v>
       </c>
       <c r="L25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M25" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
@@ -1463,13 +1464,13 @@
         <v>2188</v>
       </c>
       <c r="H26">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I26">
         <v>6</v>
       </c>
       <c r="J26">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K26">
         <v>9</v>
@@ -1504,13 +1505,13 @@
         <v>2230</v>
       </c>
       <c r="H27">
-        <v>9750</v>
+        <v>9639</v>
       </c>
       <c r="I27">
         <v>7083</v>
       </c>
       <c r="J27">
-        <v>10632</v>
+        <v>9734</v>
       </c>
       <c r="K27">
         <v>250</v>
@@ -1519,7 +1520,7 @@
         <v>147</v>
       </c>
       <c r="M27">
-        <v>250</v>
+        <v>3094</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
@@ -1545,13 +1546,13 @@
         <v>2188</v>
       </c>
       <c r="H29" s="3">
-        <v>9647</v>
+        <v>5527</v>
       </c>
       <c r="I29" s="3">
         <v>6883</v>
       </c>
       <c r="J29">
-        <v>5595</v>
+        <v>5603</v>
       </c>
       <c r="K29">
         <v>246</v>
@@ -1560,7 +1561,7 @@
         <v>133</v>
       </c>
       <c r="M29">
-        <v>226</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
@@ -1586,13 +1587,13 @@
         <v>2190</v>
       </c>
       <c r="H30" s="3">
-        <v>9670</v>
+        <v>5579</v>
       </c>
       <c r="I30" s="3">
         <v>6893</v>
       </c>
       <c r="J30">
-        <v>5623</v>
+        <v>5614</v>
       </c>
       <c r="K30">
         <v>246</v>
@@ -1601,7 +1602,7 @@
         <v>134</v>
       </c>
       <c r="M30">
-        <v>227</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
@@ -1627,13 +1628,13 @@
         <v>2190</v>
       </c>
       <c r="H31" s="3">
-        <v>9680</v>
+        <v>5580</v>
       </c>
       <c r="I31" s="3">
         <v>6896</v>
       </c>
       <c r="J31">
-        <v>5644</v>
+        <v>5625</v>
       </c>
       <c r="K31">
         <v>247</v>
@@ -1642,7 +1643,7 @@
         <v>135</v>
       </c>
       <c r="M31">
-        <v>228</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
@@ -1668,13 +1669,13 @@
         <v>2191</v>
       </c>
       <c r="H32" s="3">
-        <v>9681</v>
+        <v>6156</v>
       </c>
       <c r="I32" s="3">
         <v>6903</v>
       </c>
       <c r="J32">
-        <v>5661</v>
+        <v>7911</v>
       </c>
       <c r="K32">
         <v>247</v>
@@ -1683,7 +1684,7 @@
         <v>136</v>
       </c>
       <c r="M32">
-        <v>229</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -1709,13 +1710,13 @@
         <v>2191</v>
       </c>
       <c r="H33" s="3">
-        <v>9682</v>
+        <v>6407</v>
       </c>
       <c r="I33" s="3">
         <v>6911</v>
       </c>
       <c r="J33">
-        <v>6900</v>
+        <v>9593</v>
       </c>
       <c r="K33">
         <v>248</v>
@@ -1724,7 +1725,7 @@
         <v>136</v>
       </c>
       <c r="M33">
-        <v>231</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
@@ -1750,13 +1751,13 @@
         <v>2192</v>
       </c>
       <c r="H34" s="3">
-        <v>9688</v>
+        <v>6454</v>
       </c>
       <c r="I34" s="3">
         <v>6930</v>
       </c>
       <c r="J34">
-        <v>6955</v>
+        <v>9595</v>
       </c>
       <c r="K34">
         <v>249</v>
@@ -1765,7 +1766,7 @@
         <v>136</v>
       </c>
       <c r="M34">
-        <v>231</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
@@ -1791,13 +1792,13 @@
         <v>2193</v>
       </c>
       <c r="H35" s="3">
-        <v>9694</v>
+        <v>7279</v>
       </c>
       <c r="I35" s="3">
         <v>6937</v>
       </c>
       <c r="J35">
-        <v>7836</v>
+        <v>9624</v>
       </c>
       <c r="K35">
         <v>249</v>
@@ -1806,7 +1807,7 @@
         <v>136</v>
       </c>
       <c r="M35">
-        <v>232</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
@@ -1832,13 +1833,13 @@
         <v>2196</v>
       </c>
       <c r="H36" s="3">
-        <v>9696</v>
+        <v>8026</v>
       </c>
       <c r="I36" s="3">
         <v>6964</v>
       </c>
       <c r="J36">
-        <v>8684</v>
+        <v>9625</v>
       </c>
       <c r="K36">
         <v>250</v>
@@ -1847,7 +1848,7 @@
         <v>136</v>
       </c>
       <c r="M36">
-        <v>234</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -1873,13 +1874,13 @@
         <v>2196</v>
       </c>
       <c r="H37" s="3">
-        <v>9712</v>
+        <v>8184</v>
       </c>
       <c r="I37" s="3">
         <v>6983</v>
       </c>
       <c r="J37">
-        <v>8943</v>
+        <v>9634</v>
       </c>
       <c r="K37">
         <v>250</v>
@@ -1888,7 +1889,7 @@
         <v>141</v>
       </c>
       <c r="M37">
-        <v>236</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
@@ -1914,13 +1915,13 @@
         <v>2207</v>
       </c>
       <c r="H38" s="3">
-        <v>9743</v>
+        <v>9609</v>
       </c>
       <c r="I38" s="3">
         <v>7083</v>
       </c>
       <c r="J38">
-        <v>9637</v>
+        <v>9680</v>
       </c>
       <c r="K38">
         <v>250</v>
@@ -1929,7 +1930,7 @@
         <v>147</v>
       </c>
       <c r="M38">
-        <v>239</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
@@ -1955,13 +1956,13 @@
         <v>2193</v>
       </c>
       <c r="H40" s="1">
-        <v>9689</v>
+        <v>6880</v>
       </c>
       <c r="I40" s="1">
         <v>6938</v>
       </c>
       <c r="J40" s="1">
-        <v>7147</v>
+        <v>8250</v>
       </c>
       <c r="K40" s="1">
         <v>248</v>
@@ -1970,7 +1971,7 @@
         <v>137</v>
       </c>
       <c r="M40" s="1">
-        <v>231</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
@@ -1979,12 +1980,12 @@
       </c>
       <c r="B41" s="6">
         <f>(H40-B40)/B40</f>
-        <v>0.9565831987075929</v>
+        <v>0.38933764135702748</v>
       </c>
       <c r="C41" s="6"/>
       <c r="E41" s="7">
         <f>(H40-E40)/H40</f>
-        <v>0.77324801321085768</v>
+        <v>0.68066860465116275</v>
       </c>
       <c r="F41" s="7"/>
       <c r="H41" s="7"/>
@@ -2009,42 +2010,42 @@
         <v>25</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D43" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G43" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K43" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
@@ -2055,19 +2056,19 @@
         <v>14</v>
       </c>
       <c r="C47" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D47" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E47" t="s">
         <v>17</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G47" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H47" t="s">
         <v>28</v>
@@ -2076,7 +2077,7 @@
         <v>22</v>
       </c>
       <c r="J47" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
@@ -2489,7 +2490,7 @@
         <v>68</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J63">
         <v>41</v>
@@ -2550,18 +2551,18 @@
         <v>23</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J66" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
@@ -2572,19 +2573,19 @@
         <v>14</v>
       </c>
       <c r="C70" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D70" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E70" t="s">
         <v>17</v>
       </c>
       <c r="F70" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G70" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H70" t="s">
         <v>28</v>
@@ -2593,25 +2594,25 @@
         <v>22</v>
       </c>
       <c r="J70" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K70" t="s">
         <v>29</v>
       </c>
       <c r="L70" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M70" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="N70" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O70" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P70" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
@@ -3295,49 +3296,49 @@
         <v>20</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D89" t="s">
+        <v>93</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G89" t="s">
+        <v>94</v>
+      </c>
+      <c r="H89" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D89" t="s">
-        <v>100</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G89" t="s">
-        <v>101</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="I89" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J89" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="K89" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P89" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.2">
@@ -3359,19 +3360,19 @@
         <v>14</v>
       </c>
       <c r="C94" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D94" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E94" t="s">
         <v>17</v>
       </c>
       <c r="F94" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G94" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H94" t="s">
         <v>28</v>
@@ -3380,25 +3381,25 @@
         <v>22</v>
       </c>
       <c r="J94" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K94" t="s">
         <v>29</v>
       </c>
       <c r="L94" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M94" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N94" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O94" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P94" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.2">
@@ -4064,7 +4065,7 @@
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L112" s="11"/>
     </row>
@@ -4073,49 +4074,49 @@
         <v>20</v>
       </c>
       <c r="B113" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C113" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D113" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E113" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F113" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G113" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H113" t="s">
+        <v>64</v>
+      </c>
+      <c r="I113" t="s">
+        <v>56</v>
+      </c>
+      <c r="J113" t="s">
+        <v>86</v>
+      </c>
+      <c r="K113" t="s">
+        <v>57</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M113" t="s">
+        <v>87</v>
+      </c>
+      <c r="N113" t="s">
         <v>66</v>
       </c>
-      <c r="I113" t="s">
-        <v>58</v>
-      </c>
-      <c r="J113" t="s">
-        <v>92</v>
-      </c>
-      <c r="K113" t="s">
-        <v>59</v>
-      </c>
-      <c r="L113" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M113" t="s">
-        <v>93</v>
-      </c>
-      <c r="N113" t="s">
-        <v>68</v>
-      </c>
       <c r="O113" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P113" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/documents/Query results/Basic_queries_FULL.xlsx
+++ b/documents/Query results/Basic_queries_FULL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/homebeach/Desktop/Query tests/Query tests, FINAL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DCD683-8897-5E49-9826-672A3D555BD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC8E3DE-B6DA-2749-B33C-B5B44E1CFFB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31780" yWindow="17180" windowWidth="41340" windowHeight="16520" xr2:uid="{2484DFE7-3498-AA40-9D37-7903D1F52BE9}"/>
+    <workbookView xWindow="17120" yWindow="20600" windowWidth="41340" windowHeight="16520" xr2:uid="{2484DFE7-3498-AA40-9D37-7903D1F52BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -224,18 +224,9 @@
     <t>0.4898979485566356</t>
   </si>
   <si>
-    <t>7.507329751649383</t>
-  </si>
-  <si>
-    <t>147029.5167529636</t>
-  </si>
-  <si>
     <t>Neo4J 4.1.3 CALL 2</t>
   </si>
   <si>
-    <t>30889.343387161858</t>
-  </si>
-  <si>
     <t>61253.95950050902</t>
   </si>
   <si>
@@ -251,9 +242,6 @@
     <t>Neo4J 4.1.3 CALL2</t>
   </si>
   <si>
-    <t>48.05247132042222</t>
-  </si>
-  <si>
     <t>MySQL 5.1.41 indexed, previousinvoice</t>
   </si>
   <si>
@@ -290,21 +278,12 @@
     <t>Neo4J 4.1.3 indexed, previousinvoice CALL2</t>
   </si>
   <si>
-    <t>1.8681541692269403</t>
-  </si>
-  <si>
-    <t>68581.45091611872</t>
-  </si>
-  <si>
     <t>2888.5495477834547</t>
   </si>
   <si>
     <t>Neo4J 4.1.3 CALL 2 indexed, previousinvoice</t>
   </si>
   <si>
-    <t>2191.059296322215</t>
-  </si>
-  <si>
     <t>1801.4307091864512</t>
   </si>
   <si>
@@ -339,6 +318,27 @@
   </si>
   <si>
     <t>161.2341154966901</t>
+  </si>
+  <si>
+    <t>12929.714320509947</t>
+  </si>
+  <si>
+    <t>59489.12043928705</t>
+  </si>
+  <si>
+    <t>7.133722730804723</t>
+  </si>
+  <si>
+    <t>5517.321756069697</t>
+  </si>
+  <si>
+    <t>3805.3698847812416</t>
+  </si>
+  <si>
+    <t>14.094325099131211</t>
+  </si>
+  <si>
+    <t>0.9433981132056604</t>
   </si>
 </sst>
 </file>
@@ -736,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8120348-5E05-554A-AFC0-27A9F9C48481}">
   <dimension ref="A1:P113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="108" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="108" workbookViewId="0">
+      <selection activeCell="N91" sqref="N91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -765,7 +765,7 @@
         <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
@@ -774,7 +774,7 @@
         <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H3" t="s">
         <v>28</v>
@@ -783,7 +783,7 @@
         <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K3" t="s">
         <v>29</v>
@@ -792,7 +792,7 @@
         <v>41</v>
       </c>
       <c r="M3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -1365,34 +1365,34 @@
         <v>35</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>36</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H21" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="I21" t="s">
         <v>40</v>
       </c>
       <c r="J21" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="K21" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="L21" t="s">
         <v>42</v>
       </c>
       <c r="M21" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -1411,7 +1411,7 @@
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E25" t="s">
         <v>17</v>
@@ -1420,7 +1420,7 @@
         <v>34</v>
       </c>
       <c r="G25" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H25" t="s">
         <v>28</v>
@@ -1429,7 +1429,7 @@
         <v>22</v>
       </c>
       <c r="J25" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K25" t="s">
         <v>29</v>
@@ -1438,7 +1438,7 @@
         <v>41</v>
       </c>
       <c r="M25" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
@@ -2013,7 +2013,7 @@
         <v>37</v>
       </c>
       <c r="D43" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>26</v>
@@ -2022,16 +2022,16 @@
         <v>38</v>
       </c>
       <c r="G43" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>43</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="K43" t="s">
         <v>30</v>
@@ -2040,7 +2040,7 @@
         <v>44</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
@@ -2059,7 +2059,7 @@
         <v>33</v>
       </c>
       <c r="D47" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E47" t="s">
         <v>17</v>
@@ -2068,7 +2068,7 @@
         <v>34</v>
       </c>
       <c r="G47" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H47" t="s">
         <v>28</v>
@@ -2077,7 +2077,7 @@
         <v>22</v>
       </c>
       <c r="J47" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
@@ -2576,7 +2576,7 @@
         <v>33</v>
       </c>
       <c r="D70" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E70" t="s">
         <v>17</v>
@@ -2585,7 +2585,7 @@
         <v>34</v>
       </c>
       <c r="G70" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H70" t="s">
         <v>28</v>
@@ -2594,7 +2594,7 @@
         <v>22</v>
       </c>
       <c r="J70" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K70" t="s">
         <v>29</v>
@@ -2603,16 +2603,16 @@
         <v>49</v>
       </c>
       <c r="M70" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N70" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="O70" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P70" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
@@ -2638,7 +2638,7 @@
         <v>25</v>
       </c>
       <c r="H71">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="I71">
         <v>6</v>
@@ -2656,13 +2656,13 @@
         <v>6</v>
       </c>
       <c r="N71">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="O71">
         <v>118</v>
       </c>
       <c r="P71">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
@@ -2688,7 +2688,7 @@
         <v>131</v>
       </c>
       <c r="H72">
-        <v>214</v>
+        <v>299</v>
       </c>
       <c r="I72">
         <v>59</v>
@@ -2706,13 +2706,13 @@
         <v>313</v>
       </c>
       <c r="N72">
-        <v>294</v>
+        <v>146</v>
       </c>
       <c r="O72">
         <v>309</v>
       </c>
       <c r="P72">
-        <v>207</v>
+        <v>168</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
@@ -2738,7 +2738,7 @@
         <v>25</v>
       </c>
       <c r="H75" s="2">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I75" s="2">
         <v>51</v>
@@ -2756,13 +2756,13 @@
         <v>182</v>
       </c>
       <c r="N75">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="O75" s="2">
         <v>120</v>
       </c>
       <c r="P75">
-        <v>95</v>
+        <v>56</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
@@ -2788,7 +2788,7 @@
         <v>25</v>
       </c>
       <c r="H76" s="3">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I76" s="3">
         <v>51</v>
@@ -2806,13 +2806,13 @@
         <v>184</v>
       </c>
       <c r="N76">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="O76" s="3">
         <v>121</v>
       </c>
       <c r="P76">
-        <v>96</v>
+        <v>56</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
@@ -2838,7 +2838,7 @@
         <v>27</v>
       </c>
       <c r="H77" s="3">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="I77" s="3">
         <v>51</v>
@@ -2856,13 +2856,13 @@
         <v>184</v>
       </c>
       <c r="N77">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="O77" s="3">
         <v>123</v>
       </c>
       <c r="P77">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
@@ -2888,7 +2888,7 @@
         <v>27</v>
       </c>
       <c r="H78" s="3">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="I78" s="3">
         <v>52</v>
@@ -2906,13 +2906,13 @@
         <v>184</v>
       </c>
       <c r="N78">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="O78" s="3">
         <v>125</v>
       </c>
       <c r="P78">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
@@ -2938,7 +2938,7 @@
         <v>28</v>
       </c>
       <c r="H79" s="3">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="I79" s="3">
         <v>52</v>
@@ -2956,13 +2956,13 @@
         <v>184</v>
       </c>
       <c r="N79">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="O79" s="3">
         <v>130</v>
       </c>
       <c r="P79">
-        <v>98</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
@@ -2988,7 +2988,7 @@
         <v>28</v>
       </c>
       <c r="H80" s="3">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="I80" s="3">
         <v>52</v>
@@ -3006,13 +3006,13 @@
         <v>184</v>
       </c>
       <c r="N80">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="O80" s="3">
         <v>138</v>
       </c>
       <c r="P80">
-        <v>99</v>
+        <v>58</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
@@ -3038,7 +3038,7 @@
         <v>29</v>
       </c>
       <c r="H81" s="3">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="I81" s="3">
         <v>54</v>
@@ -3056,13 +3056,13 @@
         <v>184</v>
       </c>
       <c r="N81">
-        <v>158</v>
+        <v>59</v>
       </c>
       <c r="O81" s="3">
         <v>138</v>
       </c>
       <c r="P81">
-        <v>99</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
@@ -3088,7 +3088,7 @@
         <v>36</v>
       </c>
       <c r="H82" s="3">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="I82" s="3">
         <v>54</v>
@@ -3106,13 +3106,13 @@
         <v>185</v>
       </c>
       <c r="N82">
-        <v>186</v>
+        <v>59</v>
       </c>
       <c r="O82" s="3">
         <v>151</v>
       </c>
       <c r="P82">
-        <v>99</v>
+        <v>59</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
@@ -3138,7 +3138,7 @@
         <v>39</v>
       </c>
       <c r="H83" s="3">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="I83" s="3">
         <v>54</v>
@@ -3156,13 +3156,13 @@
         <v>186</v>
       </c>
       <c r="N83">
-        <v>203</v>
+        <v>60</v>
       </c>
       <c r="O83" s="3">
         <v>173</v>
       </c>
       <c r="P83">
-        <v>99</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
@@ -3188,7 +3188,7 @@
         <v>40</v>
       </c>
       <c r="H84" s="3">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="I84" s="3">
         <v>56</v>
@@ -3206,13 +3206,13 @@
         <v>187</v>
       </c>
       <c r="N84">
-        <v>245</v>
+        <v>61</v>
       </c>
       <c r="O84" s="3">
         <v>217</v>
       </c>
       <c r="P84">
-        <v>102</v>
+        <v>81</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.2">
@@ -3238,7 +3238,7 @@
         <v>30</v>
       </c>
       <c r="H86" s="1">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="I86" s="1">
         <v>52</v>
@@ -3256,13 +3256,13 @@
         <v>184</v>
       </c>
       <c r="N86" s="1">
-        <v>146</v>
+        <v>58</v>
       </c>
       <c r="O86" s="1">
         <v>143</v>
       </c>
       <c r="P86" s="1">
-        <v>98</v>
+        <v>59</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.2">
@@ -3302,7 +3302,7 @@
         <v>54</v>
       </c>
       <c r="D89" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>62</v>
@@ -3311,16 +3311,16 @@
         <v>55</v>
       </c>
       <c r="G89" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="I89" s="1" t="s">
         <v>48</v>
       </c>
       <c r="J89" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K89" t="s">
         <v>60</v>
@@ -3329,16 +3329,16 @@
         <v>53</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="P89" s="1" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.2">
@@ -3363,7 +3363,7 @@
         <v>33</v>
       </c>
       <c r="D94" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E94" t="s">
         <v>17</v>
@@ -3372,7 +3372,7 @@
         <v>34</v>
       </c>
       <c r="G94" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H94" t="s">
         <v>28</v>
@@ -3381,7 +3381,7 @@
         <v>22</v>
       </c>
       <c r="J94" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K94" t="s">
         <v>29</v>
@@ -3390,16 +3390,16 @@
         <v>41</v>
       </c>
       <c r="M94" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="N94" t="s">
+        <v>63</v>
+      </c>
+      <c r="O94" t="s">
         <v>65</v>
       </c>
-      <c r="O94" t="s">
-        <v>68</v>
-      </c>
       <c r="P94" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.2">
@@ -3425,7 +3425,7 @@
         <v>3063</v>
       </c>
       <c r="H95">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="I95">
         <v>243</v>
@@ -3443,13 +3443,13 @@
         <v>10</v>
       </c>
       <c r="N95">
-        <v>220</v>
+        <v>11</v>
       </c>
       <c r="O95">
         <v>229</v>
       </c>
       <c r="P95">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.2">
@@ -3475,13 +3475,13 @@
         <v>5338</v>
       </c>
       <c r="H96">
-        <v>1443706</v>
+        <v>762722</v>
       </c>
       <c r="I96">
         <v>1580518</v>
       </c>
       <c r="J96">
-        <v>4802475</v>
+        <v>992359</v>
       </c>
       <c r="K96">
         <v>1155940</v>
@@ -3493,13 +3493,13 @@
         <v>908420</v>
       </c>
       <c r="N96">
-        <v>343849</v>
+        <v>235858</v>
       </c>
       <c r="O96">
         <v>400839</v>
       </c>
       <c r="P96">
-        <v>275082</v>
+        <v>585182</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
@@ -3525,13 +3525,13 @@
         <v>3071</v>
       </c>
       <c r="H98">
-        <v>820078</v>
+        <v>740349</v>
       </c>
       <c r="I98">
         <v>866016</v>
       </c>
       <c r="J98">
-        <v>745941</v>
+        <v>935767</v>
       </c>
       <c r="K98">
         <v>1127894</v>
@@ -3543,13 +3543,13 @@
         <v>895441</v>
       </c>
       <c r="N98">
-        <v>241107</v>
+        <v>221588</v>
       </c>
       <c r="O98">
         <v>234131</v>
       </c>
       <c r="P98">
-        <v>265428</v>
+        <v>230629</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
@@ -3575,13 +3575,13 @@
         <v>3076</v>
       </c>
       <c r="H99">
-        <v>912323</v>
+        <v>749485</v>
       </c>
       <c r="I99">
         <v>930050</v>
       </c>
       <c r="J99">
-        <v>765946</v>
+        <v>940914</v>
       </c>
       <c r="K99">
         <v>1134760</v>
@@ -3593,13 +3593,13 @@
         <v>895880</v>
       </c>
       <c r="N99">
-        <v>254523</v>
+        <v>223377</v>
       </c>
       <c r="O99">
         <v>246392</v>
       </c>
       <c r="P99">
-        <v>267356</v>
+        <v>241453</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
@@ -3625,13 +3625,13 @@
         <v>3078</v>
       </c>
       <c r="H100">
-        <v>1096031</v>
+        <v>752311</v>
       </c>
       <c r="I100">
         <v>1023888</v>
       </c>
       <c r="J100">
-        <v>798377</v>
+        <v>953909</v>
       </c>
       <c r="K100">
         <v>1135916</v>
@@ -3643,13 +3643,13 @@
         <v>896872</v>
       </c>
       <c r="N100">
-        <v>280747</v>
+        <v>228991</v>
       </c>
       <c r="O100">
         <v>298174</v>
       </c>
       <c r="P100">
-        <v>267549</v>
+        <v>243067</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
@@ -3675,13 +3675,13 @@
         <v>3117</v>
       </c>
       <c r="H101">
-        <v>1097515</v>
+        <v>753377</v>
       </c>
       <c r="I101">
         <v>1046262</v>
       </c>
       <c r="J101">
-        <v>846715</v>
+        <v>955013</v>
       </c>
       <c r="K101">
         <v>1136184</v>
@@ -3693,13 +3693,13 @@
         <v>898000</v>
       </c>
       <c r="N101">
-        <v>283070</v>
+        <v>229487</v>
       </c>
       <c r="O101">
         <v>361430</v>
       </c>
       <c r="P101">
-        <v>269481</v>
+        <v>260573</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.2">
@@ -3725,13 +3725,13 @@
         <v>3220</v>
       </c>
       <c r="H102">
-        <v>1140289</v>
+        <v>753564</v>
       </c>
       <c r="I102">
         <v>1058829</v>
       </c>
       <c r="J102">
-        <v>873328</v>
+        <v>956098</v>
       </c>
       <c r="K102">
         <v>1137364</v>
@@ -3743,13 +3743,13 @@
         <v>898456</v>
       </c>
       <c r="N102">
-        <v>285854</v>
+        <v>229852</v>
       </c>
       <c r="O102">
         <v>384716</v>
       </c>
       <c r="P102">
-        <v>269843</v>
+        <v>286919</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.2">
@@ -3775,13 +3775,13 @@
         <v>3507</v>
       </c>
       <c r="H103">
-        <v>1175028</v>
+        <v>754041</v>
       </c>
       <c r="I103">
         <v>1064578</v>
       </c>
       <c r="J103">
-        <v>904869</v>
+        <v>956877</v>
       </c>
       <c r="K103">
         <v>1142693</v>
@@ -3793,13 +3793,13 @@
         <v>899324</v>
       </c>
       <c r="N103">
-        <v>287317</v>
+        <v>230015</v>
       </c>
       <c r="O103">
         <v>391069</v>
       </c>
       <c r="P103">
-        <v>270333</v>
+        <v>303112</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.2">
@@ -3825,13 +3825,13 @@
         <v>4059</v>
       </c>
       <c r="H104">
-        <v>1177520</v>
+        <v>754485</v>
       </c>
       <c r="I104">
         <v>1125257</v>
       </c>
       <c r="J104">
-        <v>914743</v>
+        <v>957382</v>
       </c>
       <c r="K104">
         <v>1144991</v>
@@ -3843,13 +3843,13 @@
         <v>900539</v>
       </c>
       <c r="N104">
-        <v>287918</v>
+        <v>230294</v>
       </c>
       <c r="O104">
         <v>392412</v>
       </c>
       <c r="P104">
-        <v>270743</v>
+        <v>341721</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.2">
@@ -3875,13 +3875,13 @@
         <v>4623</v>
       </c>
       <c r="H105">
-        <v>1265215</v>
+        <v>757233</v>
       </c>
       <c r="I105">
         <v>1125343</v>
       </c>
       <c r="J105">
-        <v>917526</v>
+        <v>960602</v>
       </c>
       <c r="K105">
         <v>1145842</v>
@@ -3893,13 +3893,13 @@
         <v>900721</v>
       </c>
       <c r="N105">
-        <v>299881</v>
+        <v>231058</v>
       </c>
       <c r="O105">
         <v>393479</v>
       </c>
       <c r="P105">
-        <v>270984</v>
+        <v>350218</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
@@ -3925,13 +3925,13 @@
         <v>5318</v>
       </c>
       <c r="H106">
-        <v>1273129</v>
+        <v>760063</v>
       </c>
       <c r="I106">
         <v>1266365</v>
       </c>
       <c r="J106">
-        <v>927726</v>
+        <v>974858</v>
       </c>
       <c r="K106">
         <v>1147193</v>
@@ -3943,13 +3943,13 @@
         <v>900891</v>
       </c>
       <c r="N106">
-        <v>342728</v>
+        <v>232967</v>
       </c>
       <c r="O106">
         <v>393877</v>
       </c>
       <c r="P106">
-        <v>271609</v>
+        <v>352328</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
@@ -3975,13 +3975,13 @@
         <v>5331</v>
       </c>
       <c r="H107">
-        <v>1296105</v>
+        <v>760964</v>
       </c>
       <c r="I107">
         <v>1316403</v>
       </c>
       <c r="J107">
-        <v>951307</v>
+        <v>981837</v>
       </c>
       <c r="K107">
         <v>1147407</v>
@@ -3993,13 +3993,13 @@
         <v>905825</v>
       </c>
       <c r="N107">
-        <v>343446</v>
+        <v>234939</v>
       </c>
       <c r="O107">
         <v>395229</v>
       </c>
       <c r="P107">
-        <v>273278</v>
+        <v>423634</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.2">
@@ -4025,13 +4025,13 @@
         <v>3840</v>
       </c>
       <c r="H110">
-        <v>1125323</v>
+        <v>753587</v>
       </c>
       <c r="I110">
         <v>1082299</v>
       </c>
       <c r="J110">
-        <v>864647</v>
+        <v>957325</v>
       </c>
       <c r="K110">
         <v>1140024</v>
@@ -4043,13 +4043,13 @@
         <v>899194</v>
       </c>
       <c r="N110">
-        <v>290659</v>
+        <v>229256</v>
       </c>
       <c r="O110">
         <v>349090</v>
       </c>
       <c r="P110">
-        <v>269660</v>
+        <v>303365</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.2">
@@ -4080,7 +4080,7 @@
         <v>51</v>
       </c>
       <c r="D113" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E113" t="s">
         <v>59</v>
@@ -4089,16 +4089,16 @@
         <v>52</v>
       </c>
       <c r="G113" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H113" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="I113" t="s">
         <v>56</v>
       </c>
       <c r="J113" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="K113" t="s">
         <v>57</v>
@@ -4107,16 +4107,16 @@
         <v>50</v>
       </c>
       <c r="M113" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="N113" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="O113" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P113" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
